--- a/Bibsam_tidskriftslistor/scifree_data_royalmedicine_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalmedicine_fullyoa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Royal Society of Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Journal of the Royal Society of Medicine </t>
-  </si>
-  <si>
     <t xml:space="preserve">Journal of the Royal Society of Medicine Cardiovascular Disease </t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Acta Radiologica Open</t>
   </si>
   <si>
-    <t>0410-0768</t>
-  </si>
-  <si>
     <t>2048-0040</t>
   </si>
   <si>
@@ -70,12 +64,6 @@
   </si>
   <si>
     <t>2047-9816</t>
-  </si>
-  <si>
-    <t>1758-1095</t>
-  </si>
-  <si>
-    <t>http://journals.sagepub.com/home/jrs</t>
   </si>
   <si>
     <t>http://journals.sagepub.com/home/cvd</t>
@@ -171,8 +159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G4"/>
   <sortState ref="A2:G27">
     <sortCondition ref="D1:D27"/>
   </sortState>
@@ -452,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +449,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -495,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -517,20 +505,20 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -541,44 +529,21 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
